--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>person</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,22 +446,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>comapny</t>
+          <t>type</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>text</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ender</t>
         </is>
       </c>
     </row>
@@ -471,35 +461,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>QUESTION AND ANSWER SECTION
-Jessica Reif Ehrlich</t>
+          <t>Erik W. Woodring</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, Morgan Stanley &amp; Co. LLC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Thank you. Well, let's start with the topic du jour; not one but two strikes. Can you give us your views of how this
-affects your business on a practical basis? How far out does your original content take you? And how much of the
-content spend do you think gets pushed from this year into next year?</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Hey. Good afternoon, guys. Thank you so much for taking the questions. Tim, maybe if we start with you, if we go
+back to the December quarter and the production shutdowns around that time, I think the question a lot of us were
+asking was how should we think about the deferral of demand versus destruction of demand. March quarter was
+quite strong, 2% year-over-year iPhone growth. And so, as we sit here in May, how have you seen that customers
+that weren't able to purchase during the December quarter behave, meaning are you seeing that they deferred
+purchases to March and June? Could they be deferring purchases to later in hopes of buying a new iPhone? Just
+how should maybe we think about the cadence of that? And then, I have a follow-up. Thanks.</t>
         </is>
       </c>
     </row>
@@ -509,33 +492,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Erik W. Woodring</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, Morgan Stanley &amp; Co. LLC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>In terms of the content, how much original content do you have? Do you run out like at a certain point in time, you
-probably will.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Okay, perfect. Thank you for that color. And Tim, maybe to follow up, it's been three or four quarters now that
+you've mentioned emerging markets like India and others. And I imagine having just opened two new stores in the
+country, it's clearly an important market for you. So, maybe can you just talk about why you see India as such an
+important market and others, how you think about monetization trends in the country, and specifically, what you
+have to do within the country to really ensure that India becomes maybe a more material mix of your business?
+And that's it for me. Thanks so much.</t>
         </is>
       </c>
     </row>
@@ -545,34 +522,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Erik W. Woodring</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, Morgan Stanley &amp; Co. LLC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Absolutely. So let's move on to password sharing, which is something everyone on the call wants to hear about.
-Could you give us kind of like state of the union? What progress have you made to-date? And when will the rollout
-be complete?</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Thank you so much.</t>
         </is>
       </c>
     </row>
@@ -582,35 +547,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Michael Ng</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, Goldman Sachs &amp; Co. LLC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Is there a way to think about segments of borrowers who have yet to convert? It feels like there's another wave
-coming or maybe several waves, maybe college students who are home for the summer and will go back in
-August or September. I don't know that mobile devices have been shut off yet. Anecdotally, many people who are
-not on mobile devices have said they haven't been cut off yet. So can you help us think through that?</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Hey. Good afternoon. Thank you very much for the question. It was encouraging to hear about the record
+installed base across iPhone and across all devices. It's been, I think, double-digit growth over the last few years
+across the active devices. I was just wondering, is that a good way to think about the installed base growth going
+forward? And then, for the iPhone installed base specifically, I was just wondering if you could provide a little bit of
+texture around how you think about the growth there whether regionally or by first smartphones versus switchers.
+And then, I have a quick follow-up.</t>
         </is>
       </c>
     </row>
@@ -620,34 +577,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Michael Ng</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, Goldman Sachs &amp; Co. LLC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Can you provide any color on the results? Like, what percent have converted to paying and on what plan? Like,
-[indiscernible] (00:06:08) members versus subscribers? Your subscriber numbers were great this quarter, but
-they were also add-ons to households. So can you help us think through? And did people change plans?</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Great. Excellent. And then, it was also encouraging to see the number of devices per iPhone user continuing to
+grow. I was just wondering if you could talk about the opportunity to continue to increase that number of Apple
+devices per iPhone user, and if you have any color around how the monetization per user may differ from those,
+for lack of a better word, super-users versus those that may not be as deep into the ecosystem. Thanks.</t>
         </is>
       </c>
     </row>
@@ -657,34 +605,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Michael Ng</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, Goldman Sachs &amp; Co. LLC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Well, maybe if you can help us think through like, in UCAN, how much of the ARM growth is a function of add-on
-members to existing accounts versus new subs signing up to higher-priced plans. And it sounds like from your
-letter that ARM will accelerate in second half as you get further along in password sharings. Is that correct?</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Excellent. Thank you, Tim.</t>
         </is>
       </c>
     </row>
@@ -694,39 +630,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Wamsi Mohan</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, BofA Securities, Inc.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>But there's another surprise that you had in the last couple of weeks, which seems like it could also be a very
-positive driver to ARM, and that is that you dropped the basic plan in Canada several weeks ago, and you just
-announced that in the US and UK. So I guess a couple of questions here.
-Are there any plans for the rest of the world? And has it so far, from your experience in Canada, has it driven the
-response that you hoped for? Is the response that more people go to the advertising tier? And then, I guess, one
-other final part of this question is that it's an obvious positive for ARPU. It feels like the impact is like $5 or more
-per month. When this is fully rolled out over three years or so â€“ like, over what period of time do you think this will
-have the most impact?</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Yes. Thank you. Tim, you had called out on December quarter earnings that Pro models were significantly
+constrained. Did you see a catch-up on the Pro models specifically in the March quarter and was the mix better
+than typical? And do you see that mix renormalizing here in the June quarter and maybe you can comment on the
+channel inventory levels as well for iPhones? And I have a follow-up.</t>
         </is>
       </c>
     </row>
@@ -736,33 +658,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Wamsi Mohan</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, BofA Securities, Inc.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>So, one last question and then I'll move on to advertising. But, for your new members or new subs from the
-password sharing, are there any noticeable differences in churn?</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Okay. Thanks, Tim. And Tim, as a follow-up, you've launched so many services around Apple Pay. Most recently,
+you mentioned buy now, pay later, a high-yield savings account. Where do you see the expansion in the
+payments ecosystem over time? And do you look at the payments ecosystem as a standalone revenue
+opportunity or is it more about making the devices even more inseparable from us? Thank you.</t>
         </is>
       </c>
     </row>
@@ -772,32 +686,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Wamsi Mohan</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, BofA Securities, Inc.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Right.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Thanks, Tim.</t>
         </is>
       </c>
     </row>
@@ -807,35 +711,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>David Vogt</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, UBS Securities LLC</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Moving on to advertising, could you give me some color on some of the innovative or nontraditional offerings that
-you have? One of the things you talked about in the upfront was like offering advertisers the ability to go into the
-top 10, which is it provides an incredible reach; that guaranteed reach really all the time. Could you just talk
-through some of the ways because you're thinking in ways that are very different from traditional media.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Great. Thanks for taking my question. Tim, I just wanted to go back to maybe kind of dig into the restocking of
+inventory in the channel versus what we're hearing from a demand perspective that appears to be a little bit softer
+in the March quarter from some of your larger carriers that exhibited relatively weak upgrade rates. So, just want
+to kind of get a sense for where you're seeing demand signals today vis-Ã -vis how you were thinking about it
+maybe a month ago or even three months ago. And is there sort of an acceleration in demand or any sort of
+signals that you might want to share with us at this point? And then, I have a follow-up.</t>
         </is>
       </c>
     </row>
@@ -845,33 +741,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>David Vogt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, UBS Securities LLC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Has there been any change to advertising ARM since last quarter when you said advertising ARM was at least as
-high as the standard tier, indicating that advertising only part of it was $8.50 or more?</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Great. That's helpful. And then, just quickly on services, are you seeing anything in terms of consumers' behavior
+other than sort of the macro that you mentioned and tough comps on digital advertising and mobile gaming? Are
+you seeing users of all the disparate services change in what they're using and how they're using it and time
+spent with an Apple service, now that we're technically hopefully fully past COVID with China almost fully
+reopened? I'm just trying to get a sense for how user or consumer behaviors changed over the last three to six
+months. Thanks.</t>
         </is>
       </c>
     </row>
@@ -881,34 +771,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>David Vogt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, UBS Securities LLC</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Can you tell us about your initial up-front advertising performance? You seem to have everything advertisers are
-looking for, but this is a really tepid overall advertising environment. So is there anything you can say about what
-the reaction's been?</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Great. Thanks, guys.</t>
         </is>
       </c>
     </row>
@@ -918,32 +796,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Samik Chatterjee</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, JPMorgan Securities LLC</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>What tools and how much time do you need to like invest to build your own ad tech infrastructure?</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Yeah. Hi. Thanks for taking my questions. I guess maybe I can follow up on David's question here on services.
+And in the past, pre-pandemic, the growth rate there was more about sort of mid-teens. The growth rates today
+where you stand, even if I back out FX impact, is more about low double-digits. So, one of the questions that we
+get often from investors and want to get your thoughts on is, even as the installed base growth seems to have
+accelerated, are these more cyclical drivers that are depressing growth at this point from returning to that level or
+do you see more of a roll-out on the monetization that you need to do to get back to those growth levels? And I
+have a follow-up, please.</t>
         </is>
       </c>
     </row>
@@ -953,33 +827,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Samik Chatterjee</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, JPMorgan Securities LLC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Is there like a time period? Like, in order to achieve scale, is this like a three-year plan before you feel like you
-really have all the tech capabilities in place?</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Okay. And maybe if I can just follow up, this is more of a macro question. I don't know if, Luca, you or Tim want to
+take this. But obviously, the macro is not sort of helpful at this point. But what you're sort of implying in terms of
+your guide is momentum for your products remains pretty stable. You're actually guiding to a modest uptick ex FX
+for the overall business. I mean, what are you seeing in terms of customer sort of spending trends, and overall,
+does the consumer sort of continue to deteriorate in terms of spending patterns? And is your sort of momentum
+here just a function of share gains? How should we think about sort of where the consumer is versus what your
+products are doing independent of that?</t>
         </is>
       </c>
     </row>
@@ -989,34 +858,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Samik Chatterjee</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, JPMorgan Securities LLC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Spence, this one may be for you, but what's your vision for the advertising contribution? You've said in the past
-that you like it to be 10% of revenue. But, given the decline of linear, are you rethinking this so that it would be a
-higher percent?</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Thank you. Thanks for taking my questions.</t>
         </is>
       </c>
     </row>
@@ -1026,34 +883,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Amit Daryanani</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, Evercore ISI</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sure. But maybe to follow-up on what you just said, like, where do you think the pool of ad dollars will come from
-over time? Given all the capabilities that Greg just talked about, why would it be limited to linear? Because you're
-going to have such extraordinary capabilities. Shouldn't the pool be linear and digital?</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>I have two as well. I guess first off on gross margins for the June quarter, they seem to be holding up fairly well,
+especially given the fact that sales are going down on a sequential basis. So, Luca, I'm wondering if you can just
+touch on what's driving the strength in gross margin sequentially that's offsetting the lack of leverage, if you may.
+And then, I also notice that the range of your gross margin guide is 50 basis points. It's typically 100 basis points.
+What does that entail? What does that mean?
+Luca Maestri
+Chief Financial Officer &amp; Senior Vice President, Apple, Inc.                                                                                                                                                                                               A
+So, you're right. I mean, we are guiding to a fairly stable level of gross margins at a very high level. We're very
+happy with the gross margins that we're having this cycle. For the first time in several quarters, we expect foreign
+exchange to be flat on a sequential basis at the gross margin level. Unfortunately, still a headwind at the revenue
+level. But at gross margin level, sequentially, we expect foreign exchange not to be a factor. And so, the seasonal
+loss of leverage that you're referring to, we expect to be offset by cost savings. And so, that should give us that
+level of margins. As you know â€“ you were asking about 50 basis points. We have guided to 50 basis points of a
+range before as well. This year in particular, because of the 14th week in the â€“ during the December quarter,
+we're a bit late in the calendar year, right. And so, we have a bit more visibility around margins for the June
+quarter.</t>
         </is>
       </c>
     </row>
@@ -1063,33 +923,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Amit Daryanani</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, Evercore ISI</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>One last question on this and then I'll move on. But has engagement changed in the past quarter or so? Are there
-any noticeable differences between the tiers?</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Got it. That's helpful. And then, I guess, Tim, if I just kind of go back to the India discussion a bit, perhaps you
+could just contrast what you're seeing in India today versus what you saw in China maybe a decade or so ago. Is
+that a reasonable ramp to think India would have or could it be different from the lessons you've seen in China?</t>
         </is>
       </c>
     </row>
@@ -1099,34 +950,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Amit Daryanani</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, Evercore ISI</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>So let's move on to free cash flow. You had an extraordinary quarter this second quarter, and you talked about
-the outlook for Q3. Could you just maybe address the underlying dynamics, talk a little bit about content spend
-and other investments?</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Thank you.</t>
         </is>
       </c>
     </row>
@@ -1136,32 +975,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Krish Sankar</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, TD Cowen</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>What's the content spend outlook for the next few years? What is normal post the strikes, plural?</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Yeah. Hi. Thanks for taking my question. The first question I had is for Tim. Tim, you have primarily been a
+consumer-centric company. But it seems like the line is blurring with the iPhone, iPad, hardware products being
+used for corporate applications. So, is there a way to segment how much of your revenues today are coming from
+enterprise versus consumer? And does the slower corporate IT spend impact your outlook for iPhone, iPad, Mac,
+et cetera? And then, I had a follow-up.</t>
         </is>
       </c>
     </row>
@@ -1171,34 +1004,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Krish Sankar</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, TD Cowen</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>But with your content spend very measured, let's put it that way, and you're kind of maybe investing in ad tech
-capabilities. But, beyond that, like it feel like there's tremendous leverage in your business model. So is there a
-way to think about growth in free cash flow beyond 2024?</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Got it, Tim. Thanks for that. And then, just as a follow-up, obviously, lot of questions on the India retail opening.
+I'm just kind of curious, you also mentioned that you hope to convert a lot of folks into iPhone there. Where do you
+think the biggest opportunity is? Is it like primarily a hardware business like the iPhone, iPad, Wearables, et
+cetera? Or do you think there is a service opportunity in India longer term too? Thank you very much.</t>
         </is>
       </c>
     </row>
@@ -1208,33 +1032,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Krish Sankar</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, TD Cowen</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>So can we talk about uses of free cash flow and maybe possibly M&amp;A? There are a lot of distressed assets in
-media land, maybe the lowest multiples in memory that we've seen. What assets might be interesting to you?</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Thanks a lot, Tim.</t>
         </is>
       </c>
     </row>
@@ -1244,34 +1057,25 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Aaron Rakers</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, Wells Fargo Securities LLC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>And just maybe moving a little bit away from that, but you've developed a library over 10-plus years at this point.
-And it's pretty substantial, and you've got some really amazing global titles. Would you consider selling your
-library content to others?</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Yeah. Thanks for taking the questions. I guess my first question is, I want to go back to kind of the geographical
+dynamics. I'm curious, as we all think about the reopening attributes of China, just how you would characterize the
+shaping of demand you saw through the course of this last quarter and kind of how you're thinking about the
+impact of that reopening playing out over the next couple quarters?</t>
         </is>
       </c>
     </row>
@@ -1281,32 +1085,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Aaron Rakers</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, Wells Fargo Securities LLC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>And do you</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Yeah. Very helpful, Tim. As a quick follow-up, I want to go back to Amit's question on gross margin. You talked
+about FX, the lessening impact there. I'm just curious of when you look at our gross margin, obviously, you got
+mix attributes kind of potentially continuing to drive that higher. But I'm curious on the current environment how
+you would characterize the component pricing dynamics and what you're thinking about in this current quarter's
+guidance.</t>
         </is>
       </c>
     </row>
@@ -1316,32 +1114,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Aaron Rakers</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, Wells Fargo Securities LLC</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Oh my God. Okay. Well, and then</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Thank you.</t>
         </is>
       </c>
     </row>
@@ -1351,32 +1139,25 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Sidney Ho</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, Deutsche Bank Securities, Inc.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Okay. Well, can you talk a little bit about your live strategy including sports experimentation?</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Great. Thanks for taking my question. I was hoping we can talk about the linearity of the March quarter and
+perhaps the first 4.5 weeks of the current quarter. It looks like things are slowing down quite a bit elsewhere. But if
+my math is right, your fiscal third quarter guidance implies product revenue will be a little bit lower than seasonal
+average on a sequential basis. Any color would be helpful. Thanks.</t>
         </is>
       </c>
     </row>
@@ -1386,33 +1167,130 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jessica Reif Ehrlich</t>
+          <t>Sidney Ho</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Analyst</t>
+          <t>Analyst, Deutsche Bank Securities, Inc.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>BofA Securities, Inc.</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>There seems to be a lot going on in sports. You supposedly outbid or reportedly outbid ESPN for NFL sports
-documentary. So maybe if you can include in live sports that would be great.</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>EndOfBlock</t>
+          <t>Okay. That's helpful. Maybe as a quick follow-up, you talked about Apple Pay Later. How has the feedback been
+so far and how do you expect the adoption of that service over the next few quarters? Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sidney Ho</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Analyst, Deutsche Bank Securities, Inc.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Okay. Thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Harsh V. Kumar</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Analyst, Piper Sandler &amp; Co.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Yeah. Hey, guys. Thanks for squeezing me in. Tim, you're one of the largest chip companies. You're not a
+component maker. You actually use your own products. But we almost never hear in any context of you guys
+being a beneficiary â€“ Apple being a beneficiary for either the CHIPS Act money or the R&amp;D tax credit that's being
+proposed. I was just curious if you're eligible for any of those. And then, I've got a follow-up.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Harsh V. Kumar</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Analyst, Piper Sandler &amp; Co.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Understood, and thanks for the clarification. And Luca, I wanted to clarify your comments about June. When
+you're saying June performance will be similar to March, I assume on a year-on-year basis, which would be June
+should be down about 2-something-odd-percent. Is that a fair way? And then, my question that I wanted to ask â€“
+maybe another one for Tim was where do you think is the largest opportunity in your services offering? I mean,
+you're doing a great job. You just set a record, but surely there must be areas where you think you can do better.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Harsh V. Kumar</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Analyst, Piper Sandler &amp; Co.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Understood. Thanks, Tim.</t>
         </is>
       </c>
     </row>

--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Erik W. Woodring</t>
+          <t>Maury Raycroft</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Analyst, Morgan Stanley &amp; Co. LLC</t>
+          <t>Analyst, Jefferies LLC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,13 +476,9 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hey. Good afternoon, guys. Thank you so much for taking the questions. Tim, maybe if we start with you, if we go
-back to the December quarter and the production shutdowns around that time, I think the question a lot of us were
-asking was how should we think about the deferral of demand versus destruction of demand. March quarter was
-quite strong, 2% year-over-year iPhone growth. And so, as we sit here in May, how have you seen that customers
-that weren't able to purchase during the December quarter behave, meaning are you seeing that they deferred
-purchases to March and June? Could they be deferring purchases to later in hopes of buying a new iPhone? Just
-how should maybe we think about the cadence of that? And then, I have a follow-up. Thanks.</t>
+          <t>Hi. Good morning. Congrats on the progress and thanks for taking my question. I was going to ask about the HAE
+IND, wondering if you're commenting anymore on what exactly FDA requested to be in the IND and what you
+included in the IND for the Phase 2. And do you expect a typical IND acceptance timeline for that program?</t>
         </is>
       </c>
     </row>
@@ -492,12 +488,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Erik W. Woodring</t>
+          <t>Maury Raycroft</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Analyst, Morgan Stanley &amp; Co. LLC</t>
+          <t>Analyst, Jefferies LLC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,12 +503,8 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Okay, perfect. Thank you for that color. And Tim, maybe to follow up, it's been three or four quarters now that
-you've mentioned emerging markets like India and others. And I imagine having just opened two new stores in the
-country, it's clearly an important market for you. So, maybe can you just talk about why you see India as such an
-important market and others, how you think about monetization trends in the country, and specifically, what you
-have to do within the country to really ensure that India becomes maybe a more material mix of your business?
-And that's it for me. Thanks so much.</t>
+          <t>Okay. And maybe one follow-up. Just if you could talk a little bit more about the Phase 2 design and types of
+patients and how you can leverage the data for a potential streamlined, pivotal study in HAE?</t>
         </is>
       </c>
     </row>
@@ -522,12 +514,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Erik W. Woodring</t>
+          <t>Maury Raycroft</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Analyst, Morgan Stanley &amp; Co. LLC</t>
+          <t>Analyst, Jefferies LLC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -537,7 +529,8 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Thank you so much.</t>
+          <t>Okay. Thanks for taking my questions. I'll hop back in the queue.
+Operator: The next question comes from Greg Harrison with Bank of America. Please go ahead.</t>
         </is>
       </c>
     </row>
@@ -547,12 +540,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Michael Ng</t>
+          <t>Gregory Harrison</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Analyst, Goldman Sachs &amp; Co. LLC</t>
+          <t>Analyst, BofA Securities, Inc.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -562,12 +555,9 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hey. Good afternoon. Thank you very much for the question. It was encouraging to hear about the record
-installed base across iPhone and across all devices. It's been, I think, double-digit growth over the last few years
-across the active devices. I was just wondering, is that a good way to think about the installed base growth going
-forward? And then, for the iPhone installed base specifically, I was just wondering if you could provide a little bit of
-texture around how you think about the growth there whether regionally or by first smartphones versus switchers.
-And then, I have a quick follow-up.</t>
+          <t>Hey. Good morning and thanks for taking the question. I wanted to ask how you're thinking about the future of the
+cure to sickle cell landscape, now that some competitors have discontinued investment in the space. What do you
+think will be the next step beyond the CRISPR and Vertex approach and how do you win there?</t>
         </is>
       </c>
     </row>
@@ -577,12 +567,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Michael Ng</t>
+          <t>Gregory Harrison</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Analyst, Goldman Sachs &amp; Co. LLC</t>
+          <t>Analyst, BofA Securities, Inc.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -592,10 +582,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Great. Excellent. And then, it was also encouraging to see the number of devices per iPhone user continuing to
-grow. I was just wondering if you could talk about the opportunity to continue to increase that number of Apple
-devices per iPhone user, and if you have any color around how the monetization per user may differ from those,
-for lack of a better word, super-users versus those that may not be as deep into the ecosystem. Thanks.</t>
+          <t>Okay. That's helpful. Thanks again for taking the question.</t>
         </is>
       </c>
     </row>
@@ -605,12 +592,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Michael Ng</t>
+          <t>Swapnil Malekar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Analyst, Goldman Sachs &amp; Co. LLC</t>
+          <t>Analyst, Piper Sandler &amp; Co.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -620,7 +607,10 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Excellent. Thank you, Tim.</t>
+          <t>Hey. Good morning. Thank you for taking my question. So, you had previously mentioned the likelihood of having
+an interim readout for the pivotal trial in ATTR cardiomyopathy. So, I was just wondering, like how the new
+emerging data and the new emerging clinical endpoints that you mentioned in the press release are informing this
+decision of an interim analysis?</t>
         </is>
       </c>
     </row>
@@ -630,12 +620,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Wamsi Mohan</t>
+          <t>Swapnil Malekar</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Analyst, BofA Securities, Inc.</t>
+          <t>Analyst, Piper Sandler &amp; Co.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -645,10 +635,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Yes. Thank you. Tim, you had called out on December quarter earnings that Pro models were significantly
-constrained. Did you see a catch-up on the Pro models specifically in the March quarter and was the mix better
-than typical? And do you see that mix renormalizing here in the June quarter and maybe you can comment on the
-channel inventory levels as well for iPhones? And I have a follow-up.</t>
+          <t>No, that's â€“ yeah. Sorry, I mean, just in terms of clinical trial design, if there will be an interim analysis? Yeah.</t>
         </is>
       </c>
     </row>
@@ -658,12 +645,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Wamsi Mohan</t>
+          <t>Swapnil Malekar</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Analyst, BofA Securities, Inc.</t>
+          <t>Analyst, Piper Sandler &amp; Co.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -673,10 +660,9 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Okay. Thanks, Tim. And Tim, as a follow-up, you've launched so many services around Apple Pay. Most recently,
-you mentioned buy now, pay later, a high-yield savings account. Where do you see the expansion in the
-payments ecosystem over time? And do you look at the payments ecosystem as a standalone revenue
-opportunity or is it more about making the devices even more inseparable from us? Thank you.</t>
+          <t>Got it. And one follow-up I had is, so you mentioned that there have been like more than 50 patients dosed across
+two programs with some of the patients reaching two-year mark. So, I was just wondering if there were any
+relapses in TTR or of kallikrein, any of the patients that, that required redosing. Thanks for taking my questions.</t>
         </is>
       </c>
     </row>
@@ -686,12 +672,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wamsi Mohan</t>
+          <t>Terence C. Flynn</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Analyst, BofA Securities, Inc.</t>
+          <t>Analyst, Morgan Stanley &amp; Co. LLC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -701,7 +687,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Thanks, Tim.</t>
+          <t>Great. Thanks so much for taking the questions. I was just wondering, as you think broadly about the pipeline. I
+know you did the Rewrite Therapeutics deal. But just thinking more broadly, do you think there's a need for any
+additional business development or do you think you have all the tools you need at this point? John.
+And then one kind of second question, which again, I'm not sure if it's applicable or not, but yesterday CRO
+announced some supply chain issues with non-human primates. And I was just wondering if that might impact any
+of your preclinical work or timelines? Thank you.</t>
         </is>
       </c>
     </row>
@@ -711,12 +702,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>David Vogt</t>
+          <t>Lisa Walter</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Analyst, UBS Securities LLC</t>
+          <t>Analyst, RBC Capital Markets LLC</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -726,12 +717,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Great. Thanks for taking my question. Tim, I just wanted to go back to maybe kind of dig into the restocking of
-inventory in the channel versus what we're hearing from a demand perspective that appears to be a little bit softer
-in the March quarter from some of your larger carriers that exhibited relatively weak upgrade rates. So, just want
-to kind of get a sense for where you're seeing demand signals today vis-Ã -vis how you were thinking about it
-maybe a month ago or even three months ago. And is there sort of an acceleration in demand or any sort of
-signals that you might want to share with us at this point? And then, I have a follow-up.</t>
+          <t>Oh, great. Thanks for taking our questions and congrats on all the progress. This is Lisa on for Luca. Just one on
+the cardiomyopathy pivotal trial. Just wondering if we should expect two trials here? Maybe one with the six-
+minute walk test as the primary end point and another with cardiovascular-based outcome study. And maybe on
+sickle cell disease, can you expand further on why Novartis decided to discontinue the program? And if there is
+any clinical data available, will you be in a position to share it? Thank you.</t>
         </is>
       </c>
     </row>
@@ -741,12 +731,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>David Vogt</t>
+          <t>Lisa Walter</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Analyst, UBS Securities LLC</t>
+          <t>Analyst, RBC Capital Markets LLC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -756,12 +746,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Great. That's helpful. And then, just quickly on services, are you seeing anything in terms of consumers' behavior
-other than sort of the macro that you mentioned and tough comps on digital advertising and mobile gaming? Are
-you seeing users of all the disparate services change in what they're using and how they're using it and time
-spent with an Apple service, now that we're technically hopefully fully past COVID with China almost fully
-reopened? I'm just trying to get a sense for how user or consumer behaviors changed over the last three to six
-months. Thanks.</t>
+          <t>Great. Thanks for taking our question.</t>
         </is>
       </c>
     </row>
@@ -771,12 +756,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>David Vogt</t>
+          <t>Yanan Zhu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Analyst, UBS Securities LLC</t>
+          <t>Analyst, Wells Fargo Securities LLC</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -786,7 +771,10 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Great. Thanks, guys.</t>
+          <t>Hi. Thanks for taking my question. On the HAE program, I was wondering what's the reason or rationale for
+having this placebo arm in this Phase 2 study? And also, in terms of the goal of the treatment for this kind of one-
+time treatment approach, are you â€“ do you think a complete cure is kind of the expected outcome for this type of
+approach or there could be a different kind of outcome and still appropriate for this approach? Thanks.</t>
         </is>
       </c>
     </row>
@@ -796,12 +784,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Samik Chatterjee</t>
+          <t>Yanan Zhu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Analyst, JPMorgan Securities LLC</t>
+          <t>Analyst, Wells Fargo Securities LLC</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -811,13 +799,9 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Yeah. Hi. Thanks for taking my questions. I guess maybe I can follow up on David's question here on services.
-And in the past, pre-pandemic, the growth rate there was more about sort of mid-teens. The growth rates today
-where you stand, even if I back out FX impact, is more about low double-digits. So, one of the questions that we
-get often from investors and want to get your thoughts on is, even as the installed base growth seems to have
-accelerated, are these more cyclical drivers that are depressing growth at this point from returning to that level or
-do you see more of a roll-out on the monetization that you need to do to get back to those growth levels? And I
-have a follow-up, please.</t>
+          <t>Great. Thanks. If I could have a quick follow up on the cardiac amyloid. You mentioned that might be a readout for
+the NTLA-2001 program. Just wondering is the expectation that the cardiac amyloid will be resolving or that is the
+expectation that it is just stabilizing and no more additional amyloid addition? Thanks.</t>
         </is>
       </c>
     </row>
@@ -827,12 +811,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Samik Chatterjee</t>
+          <t>Yanan Zhu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Analyst, JPMorgan Securities LLC</t>
+          <t>Analyst, Wells Fargo Securities LLC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -842,13 +826,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Okay. And maybe if I can just follow up, this is more of a macro question. I don't know if, Luca, you or Tim want to
-take this. But obviously, the macro is not sort of helpful at this point. But what you're sort of implying in terms of
-your guide is momentum for your products remains pretty stable. You're actually guiding to a modest uptick ex FX
-for the overall business. I mean, what are you seeing in terms of customer sort of spending trends, and overall,
-does the consumer sort of continue to deteriorate in terms of spending patterns? And is your sort of momentum
-here just a function of share gains? How should we think about sort of where the consumer is versus what your
-products are doing independent of that?</t>
+          <t>Great. Thank you for taking the questions.</t>
         </is>
       </c>
     </row>
@@ -858,12 +836,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Samik Chatterjee</t>
+          <t>Rick Bienkowski</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Analyst, JPMorgan Securities LLC</t>
+          <t>Analyst, Cantor Fitzgerald &amp; Co.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -873,7 +851,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Thank you. Thanks for taking my questions.</t>
+          <t>Hi everyone, good morning. Congrats on all the progress, and thanks for taking the questions. For the NTLA-2002
+program, a worldwide Phase 2 trial initiation looks to be a bit staggered with like outside the US opening first,
+while the IND application was submitted to the FDA. And so, my question is if the FDA does have any feedback
+on either trial design or endpoints in the study, as after the IND review? Are there any mechanisms to amend the
+trial protocol for sites outside the US after the trial has already started?</t>
         </is>
       </c>
     </row>
@@ -883,12 +865,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Amit Daryanani</t>
+          <t>Rick Bienkowski</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Analyst, Evercore ISI</t>
+          <t>Analyst, Cantor Fitzgerald &amp; Co.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -898,22 +880,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>I have two as well. I guess first off on gross margins for the June quarter, they seem to be holding up fairly well,
-especially given the fact that sales are going down on a sequential basis. So, Luca, I'm wondering if you can just
-touch on what's driving the strength in gross margin sequentially that's offsetting the lack of leverage, if you may.
-And then, I also notice that the range of your gross margin guide is 50 basis points. It's typically 100 basis points.
-What does that entail? What does that mean?
-Luca Maestri
-Chief Financial Officer &amp; Senior Vice President, Apple, Inc.                                                                                                                                                                                               A
-So, you're right. I mean, we are guiding to a fairly stable level of gross margins at a very high level. We're very
-happy with the gross margins that we're having this cycle. For the first time in several quarters, we expect foreign
-exchange to be flat on a sequential basis at the gross margin level. Unfortunately, still a headwind at the revenue
-level. But at gross margin level, sequentially, we expect foreign exchange not to be a factor. And so, the seasonal
-loss of leverage that you're referring to, we expect to be offset by cost savings. And so, that should give us that
-level of margins. As you know â€“ you were asking about 50 basis points. We have guided to 50 basis points of a
-range before as well. This year in particular, because of the 14th week in the â€“ during the December quarter,
-we're a bit late in the calendar year, right. And so, we have a bit more visibility around margins for the June
-quarter.</t>
+          <t>Right. Got it. Thank you. And a quick follow-up. So, there's a few novel technologies in their early pipeline now of
+gene writing, base editing, and proprietary LNPs. I guess it's difficult to get a sense of how far away all these
+technologies are from getting into the clinic or what sort of indications these technologies might be able to
+address? So, are there any time lines for when we may get some more substantial updates for the progress of
+these earlier stage technologies?</t>
         </is>
       </c>
     </row>
@@ -923,12 +894,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Amit Daryanani</t>
+          <t>Rick Bienkowski</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Analyst, Evercore ISI</t>
+          <t>Analyst, Cantor Fitzgerald &amp; Co.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -938,9 +909,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Got it. That's helpful. And then, I guess, Tim, if I just kind of go back to the India discussion a bit, perhaps you
-could just contrast what you're seeing in India today versus what you saw in China maybe a decade or so ago. Is
-that a reasonable ramp to think India would have or could it be different from the lessons you've seen in China?</t>
+          <t>Got it.</t>
         </is>
       </c>
     </row>
@@ -950,12 +919,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Amit Daryanani</t>
+          <t>Raju Prasad</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Analyst, Evercore ISI</t>
+          <t>Analyst, William Blair &amp; Co. LLC</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -965,7 +934,10 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Thank you.</t>
+          <t>Thanks for taking the question. Just kind of wondering the cadence of the IND submissions, why NTLA-2002 is
+going to come in ahead of NTLA-2001? Was it because as you referred to earlier, the NTLA-2001 application is
+larger? I'm just wondering because the durability and amount of data for the two years [indiscernible] (00:46:00)
+on the clinical side is much higher?</t>
         </is>
       </c>
     </row>
@@ -975,12 +947,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Krish Sankar</t>
+          <t>Raju Prasad</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Analyst, TD Cowen</t>
+          <t>Analyst, William Blair &amp; Co. LLC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -990,11 +962,8 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Yeah. Hi. Thanks for taking my question. The first question I had is for Tim. Tim, you have primarily been a
-consumer-centric company. But it seems like the line is blurring with the iPhone, iPad, hardware products being
-used for corporate applications. So, is there a way to segment how much of your revenues today are coming from
-enterprise versus consumer? And does the slower corporate IT spend impact your outlook for iPhone, iPad, Mac,
-et cetera? And then, I had a follow-up.</t>
+          <t>Great. Maybe just a quick follow-up. Just wondering the rationale behind the ATM in Q4 on top of the follow on.
+Just wondering why? Thanks.</t>
         </is>
       </c>
     </row>
@@ -1004,12 +973,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Krish Sankar</t>
+          <t>Raju Prasad</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Analyst, TD Cowen</t>
+          <t>Analyst, William Blair &amp; Co. LLC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1019,10 +988,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Got it, Tim. Thanks for that. And then, just as a follow-up, obviously, lot of questions on the India retail opening.
-I'm just kind of curious, you also mentioned that you hope to convert a lot of folks into iPhone there. Where do you
-think the biggest opportunity is? Is it like primarily a hardware business like the iPhone, iPad, Wearables, et
-cetera? Or do you think there is a service opportunity in India longer term too? Thank you very much.</t>
+          <t>Great. Thanks.</t>
         </is>
       </c>
     </row>
@@ -1032,12 +998,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Krish Sankar</t>
+          <t>Dae Gon Ha</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Analyst, TD Cowen</t>
+          <t>Analyst, Stifel, Nicolaus &amp; Co., Inc.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,7 +1013,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Thanks a lot, Tim.</t>
+          <t>Great. Thanks for taking our questions and congrats on all the progress. I'll just stick with the IND question again.
+So, with regards to the NTLA-2002, I guess, to what extent do you think you've fully addressed some of the FDA
+concerns and were obviously very limited to what's publicly disclosed from one of your competitor programs or
+peer companies. And to what extent is the depth and the extensive nature of your submission, so in the case of
+how many pages you submit? Will that be a limitation factor as it pertains to the review within that 30-day period?
+Thanks so much.</t>
         </is>
       </c>
     </row>
@@ -1057,12 +1028,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Aaron Rakers</t>
+          <t>Dae Gon Ha</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Analyst, Wells Fargo Securities LLC</t>
+          <t>Analyst, Stifel, Nicolaus &amp; Co., Inc.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1072,10 +1043,8 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Yeah. Thanks for taking the questions. I guess my first question is, I want to go back to kind of the geographical
-dynamics. I'm curious, as we all think about the reopening attributes of China, just how you would characterize the
-shaping of demand you saw through the course of this last quarter and kind of how you're thinking about the
-impact of that reopening playing out over the next couple quarters?</t>
+          <t>John, just a naÃ¯ve question. With regards to the IND review, is there something analogous to a PDUFA extension
+where they just need more time to review or does it have to be a binary yes or clinical hold?</t>
         </is>
       </c>
     </row>
@@ -1085,12 +1054,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Aaron Rakers</t>
+          <t>Dae Gon Ha</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Analyst, Wells Fargo Securities LLC</t>
+          <t>Analyst, Stifel, Nicolaus &amp; Co., Inc.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1100,11 +1069,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Yeah. Very helpful, Tim. As a quick follow-up, I want to go back to Amit's question on gross margin. You talked
-about FX, the lessening impact there. I'm just curious of when you look at our gross margin, obviously, you got
-mix attributes kind of potentially continuing to drive that higher. But I'm curious on the current environment how
-you would characterize the component pricing dynamics and what you're thinking about in this current quarter's
-guidance.</t>
+          <t>Great. Thanks so much.</t>
         </is>
       </c>
     </row>
@@ -1114,12 +1079,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Aaron Rakers</t>
+          <t>Debjit Chattopadhyay</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Analyst, Wells Fargo Securities LLC</t>
+          <t>Analyst, Guggenheim Securities LLC</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1129,7 +1094,8 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Thank you.</t>
+          <t>Hey. Good morning, all. Thanks for taking our question. Can you provide an update of how many patients have
+been treated across each clinical stage program, including the dose extension cohorts? Thanks.</t>
         </is>
       </c>
     </row>
@@ -1139,12 +1105,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sidney Ho</t>
+          <t>Debjit Chattopadhyay</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Analyst, Deutsche Bank Securities, Inc.</t>
+          <t>Analyst, Guggenheim Securities LLC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1154,10 +1120,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Great. Thanks for taking my question. I was hoping we can talk about the linearity of the March quarter and
-perhaps the first 4.5 weeks of the current quarter. It looks like things are slowing down quite a bit elsewhere. But if
-my math is right, your fiscal third quarter guidance implies product revenue will be a little bit lower than seasonal
-average on a sequential basis. Any color would be helpful. Thanks.</t>
+          <t>Great. Thank you.</t>
         </is>
       </c>
     </row>
@@ -1167,12 +1130,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sidney Ho</t>
+          <t>Jay Olson</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Analyst, Deutsche Bank Securities, Inc.</t>
+          <t>Analyst, Oppenheimer &amp; Co., Inc.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1182,8 +1145,10 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Okay. That's helpful. Maybe as a quick follow-up, you talked about Apple Pay Later. How has the feedback been
-so far and how do you expect the adoption of that service over the next few quarters? Thank you.</t>
+          <t>So hey, thank you for the update and congrats on the progress. For NTLA-2002, can you talk about the rationale
+for using the 25 milligram and 50 milligram dosage in the Phase 2 study? And any particular reason not to pursue
+the highest 75 milligram dose? And then are there any lessons learned or read across from the NTLA-2002 IND
+that you plan to fight for the NTLA-2001 IND? Thank you.</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1158,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sidney Ho</t>
+          <t>Jay Olson</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Analyst, Deutsche Bank Securities, Inc.</t>
+          <t>Analyst, Oppenheimer &amp; Co., Inc.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1208,7 +1173,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Okay. Thank you.</t>
+          <t>Great. Thank you very much.</t>
         </is>
       </c>
     </row>
@@ -1218,12 +1183,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Harsh V. Kumar</t>
+          <t>Brian Cheng</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Analyst, Piper Sandler &amp; Co.</t>
+          <t>Analyst, JPMorgan Securities LLC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1233,10 +1198,10 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Yeah. Hey, guys. Thanks for squeezing me in. Tim, you're one of the largest chip companies. You're not a
-component maker. You actually use your own products. But we almost never hear in any context of you guys
-being a beneficiary â€“ Apple being a beneficiary for either the CHIPS Act money or the R&amp;D tax credit that's being
-proposed. I was just curious if you're eligible for any of those. And then, I've got a follow-up.</t>
+          <t>Good morning, John and Dave. Thanks for taking my questions. We're curious if you have any thoughts around
+the regulatory bar for IND clearance, specifically in the US for in vivo gene editing for some of the non-orphan
+larger disease indications compared to smaller orphan markets. Any feedback that you can provide on how the
+regulators are handling the risk benefit, especially in the indications with larger TAM? Thank you.</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1211,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Harsh V. Kumar</t>
+          <t>Brian Cheng</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Analyst, Piper Sandler &amp; Co.</t>
+          <t>Analyst, JPMorgan Securities LLC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1261,11 +1226,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Understood, and thanks for the clarification. And Luca, I wanted to clarify your comments about June. When
-you're saying June performance will be similar to March, I assume on a year-on-year basis, which would be June
-should be down about 2-something-odd-percent. Is that a fair way? And then, my question that I wanted to ask â€“
-maybe another one for Tim was where do you think is the largest opportunity in your services offering? I mean,
-you're doing a great job. You just set a record, but surely there must be areas where you think you can do better.</t>
+          <t>Great. Thanks. That was helpful.</t>
         </is>
       </c>
     </row>
@@ -1275,12 +1236,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Harsh V. Kumar</t>
+          <t>Joseph Thome</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Analyst, Piper Sandler &amp; Co.</t>
+          <t>Analyst, Cowen &amp; Co. LLC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1290,7 +1251,36 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Understood. Thanks, Tim.</t>
+          <t>Hi there. Good morning and thank you for taking my question. Maybe just first [indiscernible] (01:00:40) one, did
+you have a pre-IND meeting formally before the HAE IND or maybe why wasn't one appropriate at this time? And
+then just a follow-up on the CM trial, in terms of timing of that initiation, is the main gating factor just clearance of
+the US IND or is there a certain amount of follow-up that you want to see from those expansion cohorts? Thank
+you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Joseph Thome</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Analyst, Cowen &amp; Co. LLC</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Great. Thank you very much.</t>
         </is>
       </c>
     </row>

--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maury Raycroft</t>
+          <t>Geoff Meacham</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Analyst, Jefferies LLC</t>
+          <t>Analyst, BofA Securities</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,9 +476,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hi. Good morning. Congrats on the progress and thanks for taking my question. I was going to ask about the HAE
-IND, wondering if you're commenting anymore on what exactly FDA requested to be in the IND and what you
-included in the IND for the Phase 2. And do you expect a typical IND acceptance timeline for that program?</t>
+          <t>Hi, guys. Geoff Meacham, BofA. I've a couple of questions. The first is on the combo with you with COVID and flu.
+And as you've derisked the combination, how has your thinking evolved to comp the price? And when you look at
+flu, obviously it's pretty well established. It's not a particularly high bar, but you're offering a lot of value with the
+COVID piece. But that's sort of a less certain market. So that's the first question.
+Second question, on the oncology piece, I think that you guys have a pretty productive platform to go from â€“ go
+into Phase 1. How important is it strategically to look at new novel targets in oncology that you could combine? I
+feel like the INT the personalized piece of it is pretty straightforward, but the discovery, target discovery is
+obviously a pretty big research effort.</t>
         </is>
       </c>
     </row>
@@ -488,12 +493,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maury Raycroft</t>
+          <t>Geoff Meacham</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Analyst, Jefferies LLC</t>
+          <t>Analyst, BofA Securities</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -503,8 +508,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Okay. And maybe one follow-up. Just if you could talk a little bit more about the Phase 2 design and types of
-patients and how you can leverage the data for a potential streamlined, pivotal study in HAE?</t>
+          <t>Okay. Thanks you.</t>
         </is>
       </c>
     </row>
@@ -514,7 +518,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maury Raycroft</t>
+          <t>Michael J. Yee</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -529,8 +533,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Okay. Thanks for taking my questions. I'll hop back in the queue.
-Operator: The next question comes from Greg Harrison with Bank of America. Please go ahead.</t>
+          <t>Hey, guys. Michael Yee from Jefferies. Maybe an easier question and then maybe a slightly tougher question.
+The easier question is just on flu. I noticed that you said you still sort of need to talk with regulators. What do you
+need to get agreement on? When would we know that? And is there absolutely any risk at all that they wouldn't let
+you file accelerated on flu? Maybe talk to that and the chronology of when we would know about flu.
+And then the tougher question maybe is just, there was obviously a lot of discussion around your confidence in
+jabs and vaccines, utilization. Obviously it's very sensitive to the vaccine rates. Under what scenarios do you think
+if that didn't come in at where you think that's going to come in this year or even next year that you guys feel right-
+sized about your expenses and the growing expenses? This year as a year, where there's supposed to be EPS
+negative maybe that gets tougher next year. So under what scenarios do you think about that doesn't really
+matter?</t>
         </is>
       </c>
     </row>
@@ -540,12 +552,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gregory Harrison</t>
+          <t>Evan Wang</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Analyst, BofA Securities, Inc.</t>
+          <t>Analyst, Guggenheim Securities LLC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -555,9 +567,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hey. Good morning and thanks for taking the question. I wanted to ask how you're thinking about the future of the
-cure to sickle cell landscape, now that some competitors have discontinued investment in the space. What do you
-think will be the next step beyond the CRISPR and Vertex approach and how do you win there?</t>
+          <t>Hey, I'm Evan Wang from Guggenheim. Exciting data in flu, great improvements on B strains. So, I guess, how
+are you thinking about this combine with P302 data which I think still had preliminary eight cases, should this
+updated formulation translate to improve the efficacy in  (02:57:47) standard flu or hand flu? If not I
+guess how you guys think about next steps towards kind of evaluating that at the head trial with either mRNA-
+1010 or next-gen program?
+And I have a second question on oncology following the data from ACR and ASCO. Have you approached
+regulators on kind of what's required for accelerated approval, I guess, both for adjuvant melanoma and to
+support approvals in lung cancer and  (02:58:19) candidate? Thanks.</t>
         </is>
       </c>
     </row>
@@ -567,12 +584,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gregory Harrison</t>
+          <t>Salveen Richter</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Analyst, BofA Securities, Inc.</t>
+          <t>Analyst, Goldman Sachs &amp; Co. LLC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -582,7 +599,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Okay. That's helpful. Thanks again for taking the question.</t>
+          <t>Salveen Richter of Goldman Sachs. So just a follow up on that last point. I think you've talked about the three-
+year data coming by year end for the INT program, but also the interim look that will come at â€“ at, I believe,
+ (03:01:26). So, have you â€“ I mean, have you â€“ do you have a sense of what the regulators want to
+see from those two data sets or is it the first one kind of gets you to that discussion point.
+And then just a broader question, when we think of this oncology vertical where historically you've talked about
+how you would really need to unlock a vertical before you fully invest in it and cancer's risky. Talk to us about the
+INT work and how that translates to your Triplet as well as the checkpoint vaccine. And then why you are now
+starting to do these partnerships that are a bit more peripheral? Thank you.</t>
         </is>
       </c>
     </row>
@@ -592,12 +616,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Swapnil Malekar</t>
+          <t>Gena Wang</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Analyst, Piper Sandler &amp; Co.</t>
+          <t>Analyst, Barclays Capital, Inc.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -607,10 +631,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hey. Good morning. Thank you for taking my question. So, you had previously mentioned the likelihood of having
-an interim readout for the pivotal trial in ATTR cardiomyopathy. So, I was just wondering, like how the new
-emerging data and the new emerging clinical endpoints that you mentioned in the press release are informing this
-decision of an interim analysis?</t>
+          <t>Gena Wang from Barclays. I have three questions. The first one is mRNA-1010. Now, you show very impressive
+data. I'm wondering, will you be able to share that improved formulation, what is that, If you can share with us.
+And second question is regarding the combo vaccine. So, has FDA already aligned with you regarding the
+approval path, and what exactly kind of data you need to show?
+And lastly is INT non-small cell lung cancer Phase 3 trial design. Can you share with us regarding the target
+patient population in terms of the stage of the disease?</t>
         </is>
       </c>
     </row>
@@ -620,12 +646,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Swapnil Malekar</t>
+          <t>Tyler van Buren</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Analyst, Piper Sandler &amp; Co.</t>
+          <t>Analyst, TD Cowen</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -635,7 +661,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>No, that's â€“ yeah. Sorry, I mean, just in terms of clinical trial design, if there will be an interim analysis? Yeah.</t>
+          <t>Hey, guys. Tyler van Buren, TD Cowen. Thank you very much for the presentation. Have a couple. The first one
+is, with the list price for the COVID-19 booster announced for the fall season, can you give us more precision on
+what the net price might look like relative to the $64 to $100 range you guys previously announced?
+And then, the second one is on CMV. Since it's fully enrolled, not too many investors pay attention to that
+program. So what's your best guess when we'll get top line data? And can you describe the magnitude of the
+opportunity relative to, say, RSV and why investors should be so excited about it?</t>
         </is>
       </c>
     </row>
@@ -645,12 +676,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Swapnil Malekar</t>
+          <t>Hartaj Singh</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Analyst, Piper Sandler &amp; Co.</t>
+          <t>Analyst, Oppenheimer &amp; Co., Inc.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -660,9 +691,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Got it. And one follow-up I had is, so you mentioned that there have been like more than 50 patients dosed across
-two programs with some of the patients reaching two-year mark. So, I was just wondering if there were any
-relapses in TTR or of kallikrein, any of the patients that, that required redosing. Thanks for taking my questions.</t>
+          <t>Hartaj Singh with Oppenheimer &amp; Company. First, just want to thank you all for a really nice presentation. I don't
+think â€“ I think very â€“ few none of your biopharma peers actually give the breadth and the depth of presentations
+you all tend to do 3, 4, 5 times a year. So I really appreciate it.
+Couple of specific questions. I think that, Jackie, you had mentioned earlier that the implementation of the bivalent
+is going to help you with the combos. You might have answered this already question before, but how so
+specifically, with the COVID-19 bivalent, how is it going can help you with the combos in the future? And then a
+follow-on to that is one of the gentlemen previously had talked about how you monitor seasonality and variance
+currently. With the combos, how would that change and how would you able â€“ to be able to shift that into your
+combo vaccines? Thank you.</t>
         </is>
       </c>
     </row>
@@ -672,12 +709,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Terence C. Flynn</t>
+          <t>Jessica Fye</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Analyst, Morgan Stanley &amp; Co. LLC</t>
+          <t>Analyst, JPMorgan Securities LLC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -687,12 +724,9 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Great. Thanks so much for taking the questions. I was just wondering, as you think broadly about the pipeline. I
-know you did the Rewrite Therapeutics deal. But just thinking more broadly, do you think there's a need for any
-additional business development or do you think you have all the tools you need at this point? John.
-And then one kind of second question, which again, I'm not sure if it's applicable or not, but yesterday CRO
-announced some supply chain issues with non-human primates. And I was just wondering if that might impact any
-of your preclinical work or timelines? Thank you.</t>
+          <t>Hey, good afternoon. Jess Fye, JPMorgan. For RSV, can you just talk about what you see as the key
+differentiating features of your products profile and also maybe talk about how you envision that market taking
+shape in the context of shared clinical decision making?</t>
         </is>
       </c>
     </row>
@@ -702,12 +736,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lisa Walter</t>
+          <t>Edward Tenthoff</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Analyst, RBC Capital Markets LLC</t>
+          <t>Analyst, Piper Sandler &amp; Co.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -717,11 +751,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oh, great. Thanks for taking our questions and congrats on all the progress. This is Lisa on for Luca. Just one on
-the cardiomyopathy pivotal trial. Just wondering if we should expect two trials here? Maybe one with the six-
-minute walk test as the primary end point and another with cardiovascular-based outcome study. And maybe on
-sickle cell disease, can you expand further on why Novartis decided to discontinue the program? And if there is
-any clinical data available, will you be in a position to share it? Thank you.</t>
+          <t>Great. Thank you. Ted Tenthoff, Piper Sandler. Just following up on some of the data that you showed with
+respect to the rare disease franchise, can you paint what the picture looks like for where we go from here? I know
+you were talking about  (03:21:56), but what could registrational trials look like in those orphan
+settings? And how different would PA, MMA be versus PKU, for example, where there's already some therapies
+there?</t>
         </is>
       </c>
     </row>
@@ -731,12 +765,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lisa Walter</t>
+          <t>Mani Foroohar</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Analyst, RBC Capital Markets LLC</t>
+          <t>Analyst, SVB Leerink</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -746,7 +780,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Great. Thanks for taking our question.</t>
+          <t>Yeah. Thanks for the very thorough presentation. Mani Foroohar, Leerink Partners.. A couple of questions on the
+financial side. You talked about the relevance of US vaccine volumes to the guidance this year. How do you think
+about what data you gather from jab volume in the US this 4Q and the extent to which you read that forward into
+next year and future seasons? Is it fairly linear as Pfizer has suggested on their calls or do you think each season
+kind of has its own character and you're going to see multiple endemic years before you start assuming what a
+run rate would be? And I've got one more question.</t>
         </is>
       </c>
     </row>
@@ -756,12 +795,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Yanan Zhu</t>
+          <t>Mani Foroohar</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Analyst, Wells Fargo Securities LLC</t>
+          <t>Analyst, SVB Leerink</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -771,10 +810,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hi. Thanks for taking my question. On the HAE program, I was wondering what's the reason or rationale for
-having this placebo arm in this Phase 2 study? And also, in terms of the goal of the treatment for this kind of one-
-time treatment approach, are you â€“ do you think a complete cure is kind of the expected outcome for this type of
-approach or there could be a different kind of outcome and still appropriate for this approach? Thanks.</t>
+          <t>And a follow-up on the expense infrastructure and the flexing that you talked about around thinking about how to
+think about clinical trial results, et cetera, different franchises. Can you give us a sense of on SG&amp;A, R&amp;D and
+COGS respectively, like how much time does it take to flex up or down based upon what we see with the COVID
+business this year? Does it take a year to flex down because you've got contracts with suppliers on the R&amp;D and
+SG&amp;A side? How nimble can you be in terms of scaling up or down? Obviously, you can't just send people home.
+It takes time to resize your head count. Like how quickly could you pivot in either direction?</t>
         </is>
       </c>
     </row>
@@ -784,12 +825,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Yanan Zhu</t>
+          <t>Mani Foroohar</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Analyst, Wells Fargo Securities LLC</t>
+          <t>Analyst, SVB Leerink</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -799,9 +840,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Great. Thanks. If I could have a quick follow up on the cardiac amyloid. You mentioned that might be a readout for
-the NTLA-2001 program. Just wondering is the expectation that the cardiac amyloid will be resolving or that is the
-expectation that it is just stabilizing and no more additional amyloid addition? Thanks.</t>
+          <t>That's to you.</t>
         </is>
       </c>
     </row>
@@ -811,12 +850,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Yanan Zhu</t>
+          <t>Steve Chesney</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Analyst, Wells Fargo Securities LLC</t>
+          <t>Analyst, Redburn Atlantic</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -826,461 +865,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Great. Thank you for taking the questions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Rick Bienkowski</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Analyst, Cantor Fitzgerald &amp; Co.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Hi everyone, good morning. Congrats on all the progress, and thanks for taking the questions. For the NTLA-2002
-program, a worldwide Phase 2 trial initiation looks to be a bit staggered with like outside the US opening first,
-while the IND application was submitted to the FDA. And so, my question is if the FDA does have any feedback
-on either trial design or endpoints in the study, as after the IND review? Are there any mechanisms to amend the
-trial protocol for sites outside the US after the trial has already started?</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Rick Bienkowski</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Analyst, Cantor Fitzgerald &amp; Co.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Right. Got it. Thank you. And a quick follow-up. So, there's a few novel technologies in their early pipeline now of
-gene writing, base editing, and proprietary LNPs. I guess it's difficult to get a sense of how far away all these
-technologies are from getting into the clinic or what sort of indications these technologies might be able to
-address? So, are there any time lines for when we may get some more substantial updates for the progress of
-these earlier stage technologies?</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Rick Bienkowski</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Analyst, Cantor Fitzgerald &amp; Co.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Got it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Raju Prasad</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Analyst, William Blair &amp; Co. LLC</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Thanks for taking the question. Just kind of wondering the cadence of the IND submissions, why NTLA-2002 is
-going to come in ahead of NTLA-2001? Was it because as you referred to earlier, the NTLA-2001 application is
-larger? I'm just wondering because the durability and amount of data for the two years [indiscernible] (00:46:00)
-on the clinical side is much higher?</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Raju Prasad</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Analyst, William Blair &amp; Co. LLC</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Great. Maybe just a quick follow-up. Just wondering the rationale behind the ATM in Q4 on top of the follow on.
-Just wondering why? Thanks.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Raju Prasad</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Analyst, William Blair &amp; Co. LLC</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Great. Thanks.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Dae Gon Ha</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Analyst, Stifel, Nicolaus &amp; Co., Inc.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Great. Thanks for taking our questions and congrats on all the progress. I'll just stick with the IND question again.
-So, with regards to the NTLA-2002, I guess, to what extent do you think you've fully addressed some of the FDA
-concerns and were obviously very limited to what's publicly disclosed from one of your competitor programs or
-peer companies. And to what extent is the depth and the extensive nature of your submission, so in the case of
-how many pages you submit? Will that be a limitation factor as it pertains to the review within that 30-day period?
-Thanks so much.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Dae Gon Ha</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Analyst, Stifel, Nicolaus &amp; Co., Inc.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>John, just a naÃ¯ve question. With regards to the IND review, is there something analogous to a PDUFA extension
-where they just need more time to review or does it have to be a binary yes or clinical hold?</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Dae Gon Ha</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Analyst, Stifel, Nicolaus &amp; Co., Inc.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Great. Thanks so much.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Debjit Chattopadhyay</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Analyst, Guggenheim Securities LLC</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Hey. Good morning, all. Thanks for taking our question. Can you provide an update of how many patients have
-been treated across each clinical stage program, including the dose extension cohorts? Thanks.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Debjit Chattopadhyay</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Analyst, Guggenheim Securities LLC</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Great. Thank you.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Jay Olson</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Analyst, Oppenheimer &amp; Co., Inc.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>So hey, thank you for the update and congrats on the progress. For NTLA-2002, can you talk about the rationale
-for using the 25 milligram and 50 milligram dosage in the Phase 2 study? And any particular reason not to pursue
-the highest 75 milligram dose? And then are there any lessons learned or read across from the NTLA-2002 IND
-that you plan to fight for the NTLA-2001 IND? Thank you.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Jay Olson</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Analyst, Oppenheimer &amp; Co., Inc.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Great. Thank you very much.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Brian Cheng</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Analyst, JPMorgan Securities LLC</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Good morning, John and Dave. Thanks for taking my questions. We're curious if you have any thoughts around
-the regulatory bar for IND clearance, specifically in the US for in vivo gene editing for some of the non-orphan
-larger disease indications compared to smaller orphan markets. Any feedback that you can provide on how the
-regulators are handling the risk benefit, especially in the indications with larger TAM? Thank you.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Brian Cheng</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Analyst, JPMorgan Securities LLC</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Great. Thanks. That was helpful.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Joseph Thome</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Analyst, Cowen &amp; Co. LLC</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Hi there. Good morning and thank you for taking my question. Maybe just first [indiscernible] (01:00:40) one, did
-you have a pre-IND meeting formally before the HAE IND or maybe why wasn't one appropriate at this time? And
-then just a follow-up on the CM trial, in terms of timing of that initiation, is the main gating factor just clearance of
-the US IND or is there a certain amount of follow-up that you want to see from those expansion cohorts? Thank
-you.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Joseph Thome</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Analyst, Cowen &amp; Co. LLC</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Great. Thank you very much.</t>
+          <t>Hi. Steve Chesney from Redburn Atlantic. Just two quick ones for me. Just thinking about the opportunity in the
+high efficacy flu vaccine space, what are your thoughts around the need for hospitalization data as you eventually
+approach payers? And then on the COVID vaccine side, it sounds like you've made a lot of progress on
+contracting. Could you provide any updated thoughts on the contract dynamics in terms of how returns would be
+handled? And then just on the cadence of revenue recognition into the third and fourth quarter. Thanks.</t>
         </is>
       </c>
     </row>
